--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Piladang.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Piladang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2E2E28-A1FC-450F-9CDE-8F85F9F8A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902A9B4-462E-45AA-8020-E2F82B7C6891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Form PM" sheetId="1" r:id="rId1"/>
     <sheet name="Form PM (2)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1434,10 +1437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7711,8 +7717,8 @@
     <mergeCell ref="Q64:R64"/>
     <mergeCell ref="T64:V64"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
